--- a/REGULAR/CAPUPUS, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUS, LIZA FE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>CAPUPUS, LIZA FE</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1317,9 +1320,9 @@
   <dimension ref="A2:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3885" topLeftCell="A109"/>
+      <pane ySplit="3885" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1485,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.75</v>
+        <v>76.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1492,7 +1495,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>84.75</v>
+        <v>88.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3778,15 +3781,19 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="39">
+        <v>44958</v>
+      </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="38"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="38"/>
       <c r="I118" s="9"/>
@@ -3794,15 +3801,19 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="39">
+        <v>44986</v>
+      </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="38"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="38"/>
       <c r="I119" s="9"/>
@@ -3810,15 +3821,19 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="39">
+        <v>45017</v>
+      </c>
       <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="38"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="9"/>
@@ -3826,8 +3841,12 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="38"/>
       <c r="E121" s="9"/>
@@ -3839,7 +3858,9 @@
       <c r="H121" s="38"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>

--- a/REGULAR/CAPUPUS, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUS, LIZA FE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B486CF-4A17-437E-B41B-965FE001CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,26 +291,47 @@
     <t>QL(3-0-0)</t>
   </si>
   <si>
-    <t>OVID 11/16,17,18</t>
-  </si>
-  <si>
     <t>CAPUPUS, LIZA FE</t>
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <t>COMPULSORY RETIREMENT EFFECTIVE DATE: MARCH 19, 2024</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 101.542</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 90.542</t>
+  </si>
+  <si>
+    <t>COVID 11/16,17,18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +366,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,9 +688,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,6 +745,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +1030,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -988,25 +1047,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K171" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1313,97 +1372,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K171"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3885" topLeftCell="A109" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="3888" topLeftCell="A129" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="51"/>
+      <c r="B2" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>42186</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1411,7 +1470,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1424,24 +1483,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1476,16 +1535,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13">
+      <c r="E9" s="67">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.5</v>
+        <v>90.542000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1493,21 +1552,21 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
+      <c r="I9" s="67">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>88.5</v>
+        <v>101.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="20"/>
@@ -1516,13 +1575,13 @@
         <v/>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>42186</v>
       </c>
@@ -1531,18 +1590,24 @@
         <v>1.25</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E10)-D11</f>
+        <v>1.25</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13">
+        <f>SUM(G11,I10)-H11</f>
+        <v>1.25</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>42217</v>
       </c>
@@ -1551,18 +1616,24 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E11)-D12</f>
+        <v>2.5</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13">
+        <f t="shared" ref="I12:I75" si="0">SUM(G12,I11)-H12</f>
+        <v>2.5</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>42248</v>
       </c>
@@ -1571,18 +1642,24 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="38"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E12)-D13</f>
+        <v>3.75</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="38"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>42278</v>
       </c>
@@ -1591,18 +1668,24 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="38"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E13)-D14</f>
+        <v>5</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="38"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>42309</v>
       </c>
@@ -1611,60 +1694,74 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E14)-D15</f>
+        <v>6.25</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>42339</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="38">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E15)-D16</f>
+        <v>7.5</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="38"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E16)-D17</f>
+        <v>7.5</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H17" s="38"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>42370</v>
       </c>
@@ -1673,18 +1770,24 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E17)-D18</f>
+        <v>8.75</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="38"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>42401</v>
       </c>
@@ -1695,7 +1798,10 @@
         <v>1.25</v>
       </c>
       <c r="D19" s="38"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E18)-D19</f>
+        <v>10</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -1704,13 +1810,16 @@
       <c r="H19" s="38">
         <v>5</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>42430</v>
       </c>
@@ -1721,40 +1830,52 @@
         <v>1.25</v>
       </c>
       <c r="D20" s="38"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E19)-D20</f>
+        <v>11.25</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="38"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E20)-D21</f>
+        <v>11.25</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H21" s="38"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>42461</v>
       </c>
@@ -1763,18 +1884,24 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="38"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E21)-D22</f>
+        <v>12.5</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="38"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>42491</v>
       </c>
@@ -1787,20 +1914,26 @@
       <c r="D23" s="38">
         <v>2</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E22)-D23</f>
+        <v>11.75</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H23" s="38"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>42522</v>
       </c>
@@ -1809,18 +1942,24 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="38"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E23)-D24</f>
+        <v>13</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="38"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>42552</v>
       </c>
@@ -1829,18 +1968,24 @@
         <v>1.25</v>
       </c>
       <c r="D25" s="38"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E24)-D25</f>
+        <v>14.25</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="38"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>42583</v>
       </c>
@@ -1849,18 +1994,24 @@
         <v>1.25</v>
       </c>
       <c r="D26" s="38"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E25)-D26</f>
+        <v>15.5</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="38"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>42614</v>
       </c>
@@ -1869,18 +2020,24 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="38"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E26)-D27</f>
+        <v>16.75</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="38"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="13">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>42644</v>
       </c>
@@ -1891,7 +2048,10 @@
         <v>1.25</v>
       </c>
       <c r="D28" s="38"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E27)-D28</f>
+        <v>18</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -1900,20 +2060,26 @@
       <c r="H28" s="38">
         <v>1</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="48">
+      <c r="K28" s="47">
         <v>42648</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="38"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E28)-D29</f>
+        <v>18</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -1922,13 +2088,16 @@
       <c r="H29" s="38">
         <v>1</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="48">
+      <c r="K29" s="47">
         <v>42641</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>42675</v>
       </c>
@@ -1937,18 +2106,24 @@
         <v>1.25</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E29)-D30</f>
+        <v>19.25</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="38"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="13">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>42705</v>
       </c>
@@ -1961,38 +2136,50 @@
       <c r="D31" s="38">
         <v>3</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E30)-D31</f>
+        <v>17.5</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="38"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="13">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E31)-D32</f>
+        <v>17.5</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H32" s="38"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="13">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>42736</v>
       </c>
@@ -2001,18 +2188,24 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E32)-D33</f>
+        <v>18.75</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="38"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="13">
+        <f t="shared" si="0"/>
+        <v>16.75</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>42767</v>
       </c>
@@ -2025,20 +2218,26 @@
       <c r="D34" s="38">
         <v>1</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E33)-D34</f>
+        <v>19</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="38"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="48">
+      <c r="K34" s="47">
         <v>42782</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>42795</v>
       </c>
@@ -2047,18 +2246,24 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="38"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E34)-D35</f>
+        <v>20.25</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="38"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="13">
+        <f t="shared" si="0"/>
+        <v>19.25</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>42826</v>
       </c>
@@ -2067,18 +2272,24 @@
         <v>1.25</v>
       </c>
       <c r="D36" s="38"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E35)-D36</f>
+        <v>21.5</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H36" s="38"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="13">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>42856</v>
       </c>
@@ -2089,27 +2300,36 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E36)-D37</f>
+        <v>22.75</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="38"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13">
+        <f t="shared" si="0"/>
+        <v>21.75</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E37)-D38</f>
+        <v>22.75</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2118,20 +2338,26 @@
       <c r="H38" s="38">
         <v>1</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="13">
+        <f t="shared" si="0"/>
+        <v>20.75</v>
+      </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="48">
+      <c r="K38" s="47">
         <v>42879</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E38)-D39</f>
+        <v>22.75</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2140,20 +2366,26 @@
       <c r="H39" s="38">
         <v>1</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="13">
+        <f t="shared" si="0"/>
+        <v>19.75</v>
+      </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="48">
+      <c r="K39" s="47">
         <v>42886</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E39)-D40</f>
+        <v>22.75</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2162,13 +2394,16 @@
       <c r="H40" s="38">
         <v>1</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="13">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="48">
+      <c r="K40" s="47">
         <v>42887</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>42887</v>
       </c>
@@ -2177,18 +2412,24 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="38"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E40)-D41</f>
+        <v>24</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>42917</v>
       </c>
@@ -2197,18 +2438,24 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="38"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E41)-D42</f>
+        <v>25.25</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="38"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="13">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>42948</v>
       </c>
@@ -2217,18 +2464,24 @@
         <v>1.25</v>
       </c>
       <c r="D43" s="38"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E42)-D43</f>
+        <v>26.5</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="38"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="13">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>42979</v>
       </c>
@@ -2239,27 +2492,36 @@
         <v>1.25</v>
       </c>
       <c r="D44" s="38"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E43)-D44</f>
+        <v>27.75</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="38"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="13">
+        <f t="shared" si="0"/>
+        <v>23.75</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E44)-D45</f>
+        <v>27.75</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2268,13 +2530,16 @@
       <c r="H45" s="38">
         <v>1</v>
       </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="13">
+        <f t="shared" si="0"/>
+        <v>22.75</v>
+      </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="48">
+      <c r="K45" s="47">
         <v>43003</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>43009</v>
       </c>
@@ -2283,18 +2548,24 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="38"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E45)-D46</f>
+        <v>29</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="38"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>43040</v>
       </c>
@@ -2303,60 +2574,78 @@
         <v>1.25</v>
       </c>
       <c r="D47" s="38"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E46)-D47</f>
+        <v>30.25</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="38"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="13">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>43070</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
       <c r="D48" s="38">
-        <v>5</v>
-      </c>
-      <c r="E48" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="E48" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E47)-D48</f>
+        <v>27.5</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="38"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="13">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="13"/>
+      <c r="E49" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E48)-D49</f>
+        <v>27.5</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="38"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="13">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <v>43101</v>
       </c>
@@ -2367,7 +2656,10 @@
         <v>1.25</v>
       </c>
       <c r="D50" s="38"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E49)-D50</f>
+        <v>28.75</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2376,13 +2668,16 @@
       <c r="H50" s="38">
         <v>1</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="13">
+        <f t="shared" si="0"/>
+        <v>26.75</v>
+      </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="48">
+      <c r="K50" s="47">
         <v>43104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
         <v>43132</v>
       </c>
@@ -2393,7 +2688,10 @@
         <v>1.25</v>
       </c>
       <c r="D51" s="38"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E50)-D51</f>
+        <v>30</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2402,13 +2700,16 @@
       <c r="H51" s="38">
         <v>3</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>43160</v>
       </c>
@@ -2417,18 +2718,24 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="38"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E51)-D52</f>
+        <v>31.25</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="38"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="13">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <v>43191</v>
       </c>
@@ -2437,18 +2744,24 @@
         <v>1.25</v>
       </c>
       <c r="D53" s="38"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E52)-D53</f>
+        <v>32.5</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="13">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <v>43221</v>
       </c>
@@ -2459,7 +2772,10 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="38"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E53)-D54</f>
+        <v>33.75</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2468,13 +2784,16 @@
       <c r="H54" s="38">
         <v>1</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="13">
+        <f t="shared" si="0"/>
+        <v>27.75</v>
+      </c>
       <c r="J54" s="11"/>
-      <c r="K54" s="48">
+      <c r="K54" s="47">
         <v>43236</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <v>43252</v>
       </c>
@@ -2482,19 +2801,25 @@
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E54)-D55</f>
+        <v>35</v>
+      </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="42"/>
-      <c r="I55" s="9"/>
+      <c r="G55" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="13">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="J55" s="12"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <v>43282</v>
       </c>
@@ -2503,18 +2828,24 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="38"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E55)-D56</f>
+        <v>36.25</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="38"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="13">
+        <f t="shared" si="0"/>
+        <v>30.25</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <v>43313</v>
       </c>
@@ -2525,7 +2856,10 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="38"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E56)-D57</f>
+        <v>37.5</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2534,13 +2868,16 @@
       <c r="H57" s="38">
         <v>11</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="13">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>43344</v>
       </c>
@@ -2549,18 +2886,24 @@
         <v>1.25</v>
       </c>
       <c r="D58" s="38"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E57)-D58</f>
+        <v>38.75</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="38"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="13">
+        <f t="shared" si="0"/>
+        <v>21.75</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <v>43374</v>
       </c>
@@ -2569,18 +2912,24 @@
         <v>1.25</v>
       </c>
       <c r="D59" s="38"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E58)-D59</f>
+        <v>40</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H59" s="38"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39">
         <v>43405</v>
       </c>
@@ -2593,20 +2942,26 @@
       <c r="D60" s="38">
         <v>2</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E59)-D60</f>
+        <v>39.25</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="38"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="13">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>43435</v>
       </c>
@@ -2619,38 +2974,50 @@
       <c r="D61" s="38">
         <v>3</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E60)-D61</f>
+        <v>37.5</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H61" s="38"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="13">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="47" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
         <v>45</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E61)-D62</f>
+        <v>37.5</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H62" s="38"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="13">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <v>43466</v>
       </c>
@@ -2659,18 +3026,24 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="38"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E62)-D63</f>
+        <v>38.75</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="38"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="13">
+        <f t="shared" si="0"/>
+        <v>26.75</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <v>43497</v>
       </c>
@@ -2679,18 +3052,24 @@
         <v>1.25</v>
       </c>
       <c r="D64" s="38"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E63)-D64</f>
+        <v>40</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="38"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>43525</v>
       </c>
@@ -2699,18 +3078,24 @@
         <v>1.25</v>
       </c>
       <c r="D65" s="38"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E64)-D65</f>
+        <v>41.25</v>
+      </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H65" s="38"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="13">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <v>43556</v>
       </c>
@@ -2719,18 +3104,24 @@
         <v>1.25</v>
       </c>
       <c r="D66" s="38"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E65)-D66</f>
+        <v>42.5</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="38"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="13">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>43586</v>
       </c>
@@ -2743,20 +3134,26 @@
       <c r="D67" s="38">
         <v>3</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E66)-D67</f>
+        <v>40.75</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="38"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="13">
+        <f t="shared" si="0"/>
+        <v>31.75</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <v>43617</v>
       </c>
@@ -2765,18 +3162,24 @@
         <v>1.25</v>
       </c>
       <c r="D68" s="38"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E67)-D68</f>
+        <v>42</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="38"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <v>43647</v>
       </c>
@@ -2785,18 +3188,24 @@
         <v>1.25</v>
       </c>
       <c r="D69" s="38"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E68)-D69</f>
+        <v>43.25</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="38"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="13">
+        <f t="shared" si="0"/>
+        <v>34.25</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>43678</v>
       </c>
@@ -2805,18 +3214,24 @@
         <v>1.25</v>
       </c>
       <c r="D70" s="38"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E69)-D70</f>
+        <v>44.5</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="38"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="13">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>43709</v>
       </c>
@@ -2825,18 +3240,24 @@
         <v>1.25</v>
       </c>
       <c r="D71" s="38"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E70)-D71</f>
+        <v>45.75</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H71" s="38"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="13">
+        <f t="shared" si="0"/>
+        <v>36.75</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>43739</v>
       </c>
@@ -2845,18 +3266,24 @@
         <v>1.25</v>
       </c>
       <c r="D72" s="38"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E71)-D72</f>
+        <v>47</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H72" s="38"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">
         <v>43770</v>
       </c>
@@ -2865,18 +3292,24 @@
         <v>1.25</v>
       </c>
       <c r="D73" s="38"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E72)-D73</f>
+        <v>48.25</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H73" s="38"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="13">
+        <f t="shared" si="0"/>
+        <v>39.25</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <v>43800</v>
       </c>
@@ -2889,36 +3322,48 @@
       <c r="D74" s="38">
         <v>2</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E73)-D74</f>
+        <v>47.5</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H74" s="38"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="13">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E74)-D75</f>
+        <v>47.5</v>
+      </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="13">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>43831</v>
       </c>
@@ -2927,18 +3372,24 @@
         <v>1.25</v>
       </c>
       <c r="D76" s="38"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E75)-D76</f>
+        <v>48.75</v>
+      </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="13">
+        <f t="shared" ref="I76:I132" si="1">SUM(G76,I75)-H76</f>
+        <v>41.75</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>43862</v>
       </c>
@@ -2947,18 +3398,24 @@
         <v>1.25</v>
       </c>
       <c r="D77" s="38"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E76)-D77</f>
+        <v>50</v>
+      </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="13">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <v>43891</v>
       </c>
@@ -2967,18 +3424,24 @@
         <v>1.25</v>
       </c>
       <c r="D78" s="38"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E77)-D78</f>
+        <v>51.25</v>
+      </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="13">
+        <f t="shared" si="1"/>
+        <v>44.25</v>
+      </c>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <v>43922</v>
       </c>
@@ -2987,18 +3450,24 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="38"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E78)-D79</f>
+        <v>52.5</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="13">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <v>43952</v>
       </c>
@@ -3007,18 +3476,24 @@
         <v>1.25</v>
       </c>
       <c r="D80" s="38"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E79)-D80</f>
+        <v>53.75</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H80" s="38"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="13">
+        <f t="shared" si="1"/>
+        <v>46.75</v>
+      </c>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <v>43983</v>
       </c>
@@ -3027,18 +3502,24 @@
         <v>1.25</v>
       </c>
       <c r="D81" s="38"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E80)-D81</f>
+        <v>55</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H81" s="38"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="13">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
         <v>44013</v>
       </c>
@@ -3047,18 +3528,24 @@
         <v>1.25</v>
       </c>
       <c r="D82" s="38"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E81)-D82</f>
+        <v>56.25</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H82" s="38"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="13">
+        <f t="shared" si="1"/>
+        <v>49.25</v>
+      </c>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>44044</v>
       </c>
@@ -3067,18 +3554,24 @@
         <v>1.25</v>
       </c>
       <c r="D83" s="38"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E82)-D83</f>
+        <v>57.5</v>
+      </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H83" s="38"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="13">
+        <f t="shared" si="1"/>
+        <v>50.5</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <v>44075</v>
       </c>
@@ -3087,18 +3580,24 @@
         <v>1.25</v>
       </c>
       <c r="D84" s="38"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E83)-D84</f>
+        <v>58.75</v>
+      </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H84" s="38"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="13">
+        <f t="shared" si="1"/>
+        <v>51.75</v>
+      </c>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <v>44105</v>
       </c>
@@ -3107,18 +3606,24 @@
         <v>1.25</v>
       </c>
       <c r="D85" s="38"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E84)-D85</f>
+        <v>60</v>
+      </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H85" s="38"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="13">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <v>44136</v>
       </c>
@@ -3127,18 +3632,24 @@
         <v>1.25</v>
       </c>
       <c r="D86" s="38"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E85)-D86</f>
+        <v>61.25</v>
+      </c>
       <c r="F86" s="20"/>
       <c r="G86" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H86" s="38"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="13">
+        <f t="shared" si="1"/>
+        <v>54.25</v>
+      </c>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <v>44166</v>
       </c>
@@ -3151,258 +3662,336 @@
       <c r="D87" s="38">
         <v>5</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E86)-D87</f>
+        <v>57.5</v>
+      </c>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H87" s="38"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="13">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="47" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="s">
         <v>57</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="38"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E87)-D88</f>
+        <v>57.5</v>
+      </c>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H88" s="38"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="13">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
       <c r="D89" s="38"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E88)-D89</f>
+        <v>58.75</v>
+      </c>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H89" s="38"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="13">
+        <f t="shared" si="1"/>
+        <v>56.75</v>
+      </c>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
-        <v>44228</v>
+        <v>44255</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
       <c r="D90" s="38"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E89)-D90</f>
+        <v>60</v>
+      </c>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H90" s="38"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="13">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
       <c r="D91" s="38"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E90)-D91</f>
+        <v>61.25</v>
+      </c>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H91" s="38"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="13">
+        <f t="shared" si="1"/>
+        <v>59.25</v>
+      </c>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
-        <v>44287</v>
+        <v>44316</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
       <c r="D92" s="38"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E91)-D92</f>
+        <v>62.5</v>
+      </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H92" s="38"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="13">
+        <f t="shared" si="1"/>
+        <v>60.5</v>
+      </c>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
       <c r="D93" s="38"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E92)-D93</f>
+        <v>63.75</v>
+      </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H93" s="38"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="13">
+        <f t="shared" si="1"/>
+        <v>61.75</v>
+      </c>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
       <c r="D94" s="38"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E93)-D94</f>
+        <v>65</v>
+      </c>
       <c r="F94" s="20"/>
       <c r="G94" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H94" s="38"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="13">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
-        <v>44378</v>
+        <v>44408</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
       <c r="D95" s="38"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E94)-D95</f>
+        <v>66.25</v>
+      </c>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H95" s="38"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="13">
+        <f t="shared" si="1"/>
+        <v>64.25</v>
+      </c>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
-        <v>44409</v>
+        <v>44439</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
       <c r="D96" s="38"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E95)-D96</f>
+        <v>67.5</v>
+      </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H96" s="38"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="13">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
+      </c>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
       <c r="D97" s="38"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E96)-D97</f>
+        <v>68.75</v>
+      </c>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H97" s="38"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="13">
+        <f t="shared" si="1"/>
+        <v>66.75</v>
+      </c>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
-        <v>44470</v>
+        <v>44500</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
       <c r="D98" s="38"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E97)-D98</f>
+        <v>70</v>
+      </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H98" s="38"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
-        <v>44501</v>
+        <v>44530</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
       <c r="D99" s="38"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E98)-D99</f>
+        <v>71.25</v>
+      </c>
       <c r="F99" s="20"/>
       <c r="G99" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H99" s="38"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="13">
+        <f t="shared" si="1"/>
+        <v>69.25</v>
+      </c>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
-        <v>44531</v>
+        <v>44561</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>58</v>
@@ -3413,178 +4002,232 @@
       <c r="D100" s="38">
         <v>5</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E99)-D100</f>
+        <v>67.5</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H100" s="38"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="13">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="46" t="s">
         <v>59</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="38"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E100)-D101</f>
+        <v>67.5</v>
+      </c>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H101" s="38"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="13">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
       <c r="D102" s="38"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E101)-D102</f>
+        <v>68.75</v>
+      </c>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H102" s="38"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="13">
+        <f t="shared" si="1"/>
+        <v>71.75</v>
+      </c>
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
         <v>1.25</v>
       </c>
       <c r="D103" s="38"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E102)-D103</f>
+        <v>70</v>
+      </c>
       <c r="F103" s="20"/>
       <c r="G103" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H103" s="38"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="13">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
         <v>1.25</v>
       </c>
       <c r="D104" s="38"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E103)-D104</f>
+        <v>71.25</v>
+      </c>
       <c r="F104" s="20"/>
       <c r="G104" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H104" s="38"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="13">
+        <f t="shared" si="1"/>
+        <v>74.25</v>
+      </c>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
       <c r="D105" s="38"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E104)-D105</f>
+        <v>72.5</v>
+      </c>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H105" s="38"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="13">
+        <f t="shared" si="1"/>
+        <v>75.5</v>
+      </c>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
         <v>1.25</v>
       </c>
       <c r="D106" s="38"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E105)-D106</f>
+        <v>73.75</v>
+      </c>
       <c r="F106" s="20"/>
       <c r="G106" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H106" s="38"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="13">
+        <f t="shared" si="1"/>
+        <v>76.75</v>
+      </c>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39">
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
         <v>1.25</v>
       </c>
       <c r="D107" s="38"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E106)-D107</f>
+        <v>75</v>
+      </c>
       <c r="F107" s="20"/>
       <c r="G107" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H107" s="38"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="13">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
       <c r="D108" s="38"/>
-      <c r="E108" s="9"/>
+      <c r="E108" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E107)-D108</f>
+        <v>76.25</v>
+      </c>
       <c r="F108" s="20"/>
       <c r="G108" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H108" s="38"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="13">
+        <f t="shared" si="1"/>
+        <v>79.25</v>
+      </c>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>60</v>
@@ -3593,7 +4236,10 @@
         <v>1.25</v>
       </c>
       <c r="D109" s="38"/>
-      <c r="E109" s="9"/>
+      <c r="E109" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E108)-D109</f>
+        <v>77.5</v>
+      </c>
       <c r="F109" s="20"/>
       <c r="G109" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3602,15 +4248,18 @@
       <c r="H109" s="38">
         <v>2</v>
       </c>
-      <c r="I109" s="9"/>
+      <c r="I109" s="13">
+        <f t="shared" si="1"/>
+        <v>78.5</v>
+      </c>
       <c r="J109" s="11"/>
       <c r="K109" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>48</v>
@@ -3621,42 +4270,54 @@
       <c r="D110" s="38">
         <v>2</v>
       </c>
-      <c r="E110" s="9"/>
+      <c r="E110" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E109)-D110</f>
+        <v>76.75</v>
+      </c>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H110" s="38"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="13">
+        <f t="shared" si="1"/>
+        <v>79.75</v>
+      </c>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
       <c r="D111" s="38"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E110)-D111</f>
+        <v>78</v>
+      </c>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H111" s="38"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="13">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>82</v>
@@ -3665,42 +4326,54 @@
         <v>1.25</v>
       </c>
       <c r="D112" s="38"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E111)-D112</f>
+        <v>79.25</v>
+      </c>
       <c r="F112" s="20"/>
       <c r="G112" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H112" s="38"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="13">
+        <f t="shared" si="1"/>
+        <v>82.25</v>
+      </c>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="38"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E112)-D113</f>
+        <v>79.25</v>
+      </c>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H113" s="38"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="13">
+        <f t="shared" si="1"/>
+        <v>82.25</v>
+      </c>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>73</v>
@@ -3711,382 +4384,545 @@
       <c r="D114" s="38">
         <v>3</v>
       </c>
-      <c r="E114" s="9"/>
+      <c r="E114" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E113)-D114</f>
+        <v>77.5</v>
+      </c>
       <c r="F114" s="20"/>
       <c r="G114" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H114" s="38"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="13">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="38"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E114)-D115</f>
+        <v>77.5</v>
+      </c>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H115" s="38"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="13">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="47" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="38"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E115)-D116</f>
+        <v>77.5</v>
+      </c>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H116" s="38"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="13">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
       <c r="D117" s="38"/>
-      <c r="E117" s="9"/>
+      <c r="E117" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E116)-D117</f>
+        <v>78.75</v>
+      </c>
       <c r="F117" s="20"/>
       <c r="G117" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H117" s="38"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="13">
+        <f t="shared" si="1"/>
+        <v>84.75</v>
+      </c>
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
       <c r="D118" s="38"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E117)-D118</f>
+        <v>80</v>
+      </c>
       <c r="F118" s="20"/>
       <c r="G118" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H118" s="38"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="13">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
       <c r="D119" s="38"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E118)-D119</f>
+        <v>81.25</v>
+      </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H119" s="38"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="13">
+        <f t="shared" si="1"/>
+        <v>87.25</v>
+      </c>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
         <v>1.25</v>
       </c>
       <c r="D120" s="38"/>
-      <c r="E120" s="9"/>
+      <c r="E120" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E119)-D120</f>
+        <v>82.5</v>
+      </c>
       <c r="F120" s="20"/>
       <c r="G120" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H120" s="38"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="13">
+        <f t="shared" si="1"/>
+        <v>88.5</v>
+      </c>
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C121" s="13"/>
+      <c r="C121" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D121" s="38"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E120)-D121</f>
+        <v>83.75</v>
+      </c>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G121" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H121" s="38"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="13">
+        <f t="shared" si="1"/>
+        <v>89.75</v>
+      </c>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="39">
+        <v>45107</v>
+      </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="38"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E121)-D122</f>
+        <v>85</v>
+      </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="38"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="13">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="39">
+        <v>45138</v>
+      </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="38"/>
-      <c r="E123" s="9"/>
+      <c r="E123" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E122)-D123</f>
+        <v>86.25</v>
+      </c>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="38"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="13">
+        <f t="shared" si="1"/>
+        <v>92.25</v>
+      </c>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="39">
+        <v>45169</v>
+      </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="38"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E123)-D124</f>
+        <v>87.5</v>
+      </c>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="38"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="13">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="39">
+        <v>45199</v>
+      </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="38"/>
-      <c r="E125" s="9"/>
+      <c r="E125" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E124)-D125</f>
+        <v>88.75</v>
+      </c>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="38"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="13">
+        <f t="shared" si="1"/>
+        <v>94.75</v>
+      </c>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="39">
+        <v>45230</v>
+      </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="38"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E125)-D126</f>
+        <v>90</v>
+      </c>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="38"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="13">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="39">
+        <v>45260</v>
+      </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="38"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E126)-D127</f>
+        <v>91.25</v>
+      </c>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="38"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="13">
+        <f t="shared" si="1"/>
+        <v>97.25</v>
+      </c>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="9"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="39">
+        <v>45291</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D128" s="38">
+        <v>5</v>
+      </c>
+      <c r="E128" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E127)-D128</f>
+        <v>87.5</v>
+      </c>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="38"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="13">
+        <f t="shared" si="1"/>
+        <v>98.5</v>
+      </c>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="38"/>
-      <c r="E129" s="9"/>
+      <c r="E129" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E128)-D129</f>
+        <v>87.5</v>
+      </c>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H129" s="38"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="13">
+        <f t="shared" si="1"/>
+        <v>98.5</v>
+      </c>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="39">
+        <v>45322</v>
+      </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="38"/>
-      <c r="E130" s="9"/>
+      <c r="E130" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E129)-D130</f>
+        <v>88.75</v>
+      </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="38"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="13">
+        <f t="shared" si="1"/>
+        <v>99.75</v>
+      </c>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="39">
+        <v>45351</v>
+      </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="38"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E130)-D131</f>
+        <v>90</v>
+      </c>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="38"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="13">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="39"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="39">
+        <v>45369</v>
+      </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>0.54199999999999993</v>
+      </c>
       <c r="D132" s="38"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E131)-D132</f>
+        <v>90.542000000000002</v>
+      </c>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.54199999999999993</v>
       </c>
       <c r="H132" s="38"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="13">
+        <f t="shared" si="1"/>
+        <v>101.542</v>
+      </c>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="39"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="38"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="60"/>
+      <c r="B133" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="62"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="11"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="11"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="38"/>
+      <c r="D134" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="38"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="38"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="11"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="38"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F135" s="11"/>
+      <c r="G135" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H135" s="63"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="65"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4102,7 +4938,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4118,7 +4954,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4134,7 +4970,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4150,7 +4986,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4166,7 +5002,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4182,7 +5018,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4198,7 +5034,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4214,7 +5050,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4229,438 +5065,6 @@
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="38"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="38"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="38"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="38"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="38"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H148" s="38"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="20"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H149" s="38"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="38"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="20"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="38"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="38"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="38"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="20"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H153" s="38"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H154" s="38"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="38"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H155" s="38"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="20"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="38"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H156" s="38"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H157" s="38"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="20"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="38"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H158" s="38"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="20"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="39"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H159" s="38"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="20"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="38"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H160" s="38"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="20"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H161" s="38"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="39"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="38"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H162" s="38"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="39"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H163" s="38"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="39"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H164" s="38"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="39"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H165" s="38"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="39"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H166" s="38"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="39"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="38"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H167" s="38"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H168" s="38"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="39"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H169" s="38"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="39"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="38"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H170" s="38"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H171" s="42"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4677,10 +5081,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4703,41 +5107,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4753,7 +5157,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4762,41 +5166,46 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="44">
+      <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="45">
+        <v>18</v>
+      </c>
       <c r="K3" s="34">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="44" t="str">
+        <v>17</v>
+      </c>
+      <c r="L3" s="43">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.54199999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -4809,15 +5218,19 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="I6" s="60" t="s">
+      <c r="G6" s="44"/>
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>192.084</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -4830,7 +5243,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="44"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -4844,7 +5257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4870,7 +5283,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4896,7 +5309,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4922,7 +5335,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4948,7 +5361,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4974,7 +5387,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5000,7 +5413,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5026,7 +5439,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5046,7 +5459,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5066,7 +5479,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5086,7 +5499,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5107,7 +5520,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5128,7 +5541,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5149,7 +5562,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5170,7 +5583,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5191,7 +5604,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5212,7 +5625,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5233,7 +5646,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5254,7 +5667,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5275,7 +5688,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5296,7 +5709,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5317,7 +5730,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5338,7 +5751,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5359,7 +5772,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5380,7 +5793,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5401,7 +5814,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5422,7 +5835,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5443,7 +5856,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5464,7 +5877,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5485,7 +5898,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5506,7 +5919,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5515,7 +5928,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5524,7 +5937,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5533,7 +5946,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5542,7 +5955,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5551,7 +5964,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5560,7 +5973,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5569,7 +5982,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5578,7 +5991,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5587,7 +6000,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5596,7 +6009,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5605,7 +6018,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5614,7 +6027,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5623,7 +6036,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5632,7 +6045,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5641,7 +6054,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5650,7 +6063,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5659,7 +6072,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5668,7 +6081,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5677,7 +6090,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5686,7 +6099,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5695,7 +6108,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5704,7 +6117,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5713,7 +6126,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5722,7 +6135,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5731,7 +6144,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5740,7 +6153,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5749,7 +6162,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5758,7 +6171,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -5767,7 +6180,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CAPUPUS, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUS, LIZA FE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B486CF-4A17-437E-B41B-965FE001CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE31682-E9AB-4C9F-ADA0-DDF52F5E0CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -276,9 +276,6 @@
     <t>OFFICIAL BUSINESS</t>
   </si>
   <si>
-    <t>12/26-31/2022</t>
-  </si>
-  <si>
     <t>9/20,23</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>COVID 11/16,17,18</t>
+  </si>
+  <si>
+    <t>MALAYSIA 12/26-31/2022</t>
+  </si>
+  <si>
+    <t>CITY HEALTH OFFICER II</t>
   </si>
 </sst>
 </file>
@@ -713,6 +716,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,30 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,9 +1382,9 @@
   <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A129" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="5964" topLeftCell="A142"/>
+      <selection activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,64 +1406,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="64">
         <v>42186</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1486,18 +1491,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1542,7 +1547,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="67">
+      <c r="E9" s="56">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>90.542000000000002</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="67">
+      <c r="I9" s="56">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>101.542</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>43070</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -4286,7 +4291,7 @@
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -4320,7 +4325,7 @@
         <v>44895</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -4342,13 +4347,13 @@
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="38"/>
@@ -4368,7 +4373,7 @@
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -4424,7 +4429,7 @@
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -4582,7 +4587,7 @@
       </c>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -4773,7 +4778,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4874,13 +4879,13 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="60"/>
-      <c r="B133" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C133" s="62"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="64"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="53"/>
       <c r="F133" s="11"/>
       <c r="G133" s="13"/>
       <c r="H133" s="11"/>
@@ -4892,14 +4897,14 @@
       <c r="A134" s="39"/>
       <c r="B134" s="11"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="66" t="s">
-        <v>93</v>
+      <c r="D134" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="11"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="66" t="s">
-        <v>91</v>
+      <c r="H134" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
@@ -4909,18 +4914,18 @@
       <c r="A135" s="39"/>
       <c r="B135" s="11"/>
       <c r="C135" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="9"/>
       <c r="F135" s="11"/>
-      <c r="G135" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H135" s="63"/>
-      <c r="I135" s="64"/>
-      <c r="J135" s="63"/>
-      <c r="K135" s="65"/>
+      <c r="G135" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H135" s="52"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="54"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
@@ -5095,9 +5100,9 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
                                    HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
@@ -5129,17 +5134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5204,7 +5209,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
@@ -5219,12 +5224,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">

--- a/REGULAR/CAPUPUS, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUS, LIZA FE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE31682-E9AB-4C9F-ADA0-DDF52F5E0CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,19 +321,25 @@
   </si>
   <si>
     <t>CITY HEALTH OFFICER II</t>
+  </si>
+  <si>
+    <t>9/7,8/2023</t>
+  </si>
+  <si>
+    <t>9/20,21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,14 +374,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,10 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1027,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1050,25 +1044,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1375,99 +1369,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5964" topLeftCell="A142"/>
-      <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="M143" sqref="M143"/>
+      <pane ySplit="4200" topLeftCell="A114" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="63">
         <v>42186</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1475,7 +1469,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1488,24 +1482,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1540,16 +1534,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="56">
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.542000000000002</v>
+        <v>90.792000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1557,14 +1551,14 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="56">
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.542</v>
+        <v>99.792000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>64</v>
       </c>
@@ -1586,7 +1580,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>42186</v>
       </c>
@@ -1612,7 +1606,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>42217</v>
       </c>
@@ -1638,7 +1632,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>42248</v>
       </c>
@@ -1664,7 +1658,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>42278</v>
       </c>
@@ -1690,7 +1684,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>42309</v>
       </c>
@@ -1716,7 +1710,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>42339</v>
       </c>
@@ -1742,7 +1736,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>65</v>
       </c>
@@ -1766,7 +1760,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>42370</v>
       </c>
@@ -1792,7 +1786,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>42401</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>42430</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>70</v>
@@ -1880,7 +1874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>42461</v>
       </c>
@@ -1906,7 +1900,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>42491</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>42522</v>
       </c>
@@ -1964,7 +1958,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>42552</v>
       </c>
@@ -1990,7 +1984,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>42583</v>
       </c>
@@ -2016,7 +2010,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>42614</v>
       </c>
@@ -2042,7 +2036,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>42644</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -2102,7 +2096,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>42675</v>
       </c>
@@ -2128,7 +2122,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>42705</v>
       </c>
@@ -2160,7 +2154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>75</v>
       </c>
@@ -2184,7 +2178,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>42736</v>
       </c>
@@ -2210,7 +2204,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>42767</v>
       </c>
@@ -2242,7 +2236,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>42795</v>
       </c>
@@ -2268,7 +2262,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>42826</v>
       </c>
@@ -2294,7 +2288,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>42856</v>
       </c>
@@ -2324,7 +2318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -2352,7 +2346,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>44</v>
@@ -2380,7 +2374,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -2408,7 +2402,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>42887</v>
       </c>
@@ -2434,7 +2428,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>42917</v>
       </c>
@@ -2460,7 +2454,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42948</v>
       </c>
@@ -2486,7 +2480,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>42979</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>44</v>
@@ -2544,7 +2538,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>43009</v>
       </c>
@@ -2570,7 +2564,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>43040</v>
       </c>
@@ -2596,7 +2590,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>43070</v>
       </c>
@@ -2626,7 +2620,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>43</v>
       </c>
@@ -2650,7 +2644,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>43101</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>43132</v>
       </c>
@@ -2714,7 +2708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>43160</v>
       </c>
@@ -2740,7 +2734,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>43191</v>
       </c>
@@ -2766,7 +2760,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>43221</v>
       </c>
@@ -2798,7 +2792,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>43252</v>
       </c>
@@ -2824,7 +2818,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>43282</v>
       </c>
@@ -2850,7 +2844,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>43313</v>
       </c>
@@ -2882,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>43344</v>
       </c>
@@ -2908,7 +2902,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>43374</v>
       </c>
@@ -2934,7 +2928,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>43405</v>
       </c>
@@ -2966,7 +2960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>43435</v>
       </c>
@@ -2998,7 +2992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
         <v>45</v>
       </c>
@@ -3022,7 +3016,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>43466</v>
       </c>
@@ -3048,7 +3042,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>43497</v>
       </c>
@@ -3074,7 +3068,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>43525</v>
       </c>
@@ -3100,7 +3094,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>43556</v>
       </c>
@@ -3126,7 +3120,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>43586</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>43617</v>
       </c>
@@ -3184,7 +3178,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>43647</v>
       </c>
@@ -3210,7 +3204,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>43678</v>
       </c>
@@ -3236,7 +3230,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>43709</v>
       </c>
@@ -3262,7 +3256,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>43739</v>
       </c>
@@ -3288,7 +3282,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>43770</v>
       </c>
@@ -3314,7 +3308,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>43800</v>
       </c>
@@ -3344,7 +3338,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="46" t="s">
         <v>56</v>
       </c>
@@ -3368,7 +3362,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>43831</v>
       </c>
@@ -3388,13 +3382,13 @@
       </c>
       <c r="H76" s="38"/>
       <c r="I76" s="13">
-        <f t="shared" ref="I76:I132" si="1">SUM(G76,I75)-H76</f>
+        <f t="shared" ref="I76:I133" si="1">SUM(G76,I75)-H76</f>
         <v>41.75</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>43862</v>
       </c>
@@ -3420,7 +3414,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>43891</v>
       </c>
@@ -3446,7 +3440,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>43922</v>
       </c>
@@ -3472,7 +3466,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>43952</v>
       </c>
@@ -3498,7 +3492,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>43983</v>
       </c>
@@ -3524,7 +3518,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>44013</v>
       </c>
@@ -3550,7 +3544,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>44044</v>
       </c>
@@ -3576,7 +3570,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>44075</v>
       </c>
@@ -3602,7 +3596,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>44105</v>
       </c>
@@ -3628,7 +3622,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>44136</v>
       </c>
@@ -3654,7 +3648,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>44166</v>
       </c>
@@ -3684,7 +3678,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="46" t="s">
         <v>57</v>
       </c>
@@ -3708,7 +3702,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>44227</v>
       </c>
@@ -3734,7 +3728,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>44255</v>
       </c>
@@ -3760,7 +3754,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>44286</v>
       </c>
@@ -3786,7 +3780,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>44316</v>
       </c>
@@ -3812,7 +3806,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>44347</v>
       </c>
@@ -3838,7 +3832,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>44377</v>
       </c>
@@ -3864,7 +3858,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>44408</v>
       </c>
@@ -3890,7 +3884,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>44439</v>
       </c>
@@ -3916,7 +3910,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>44469</v>
       </c>
@@ -3942,7 +3936,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>44500</v>
       </c>
@@ -3968,7 +3962,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>44530</v>
       </c>
@@ -3994,7 +3988,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>44561</v>
       </c>
@@ -4024,7 +4018,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="46" t="s">
         <v>59</v>
       </c>
@@ -4048,7 +4042,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>44592</v>
       </c>
@@ -4074,7 +4068,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>44620</v>
       </c>
@@ -4100,7 +4094,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>44651</v>
       </c>
@@ -4126,7 +4120,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>44681</v>
       </c>
@@ -4152,7 +4146,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>44712</v>
       </c>
@@ -4178,7 +4172,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>44742</v>
       </c>
@@ -4204,7 +4198,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>44773</v>
       </c>
@@ -4230,7 +4224,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>44804</v>
       </c>
@@ -4262,7 +4256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>44834</v>
       </c>
@@ -4294,7 +4288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>44865</v>
       </c>
@@ -4320,7 +4314,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>44895</v>
       </c>
@@ -4350,7 +4344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>83</v>
@@ -4376,7 +4370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>44926</v>
       </c>
@@ -4406,7 +4400,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>79</v>
@@ -4432,7 +4426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="46" t="s">
         <v>62</v>
       </c>
@@ -4456,7 +4450,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>44957</v>
       </c>
@@ -4482,7 +4476,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>44985</v>
       </c>
@@ -4508,7 +4502,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>45016</v>
       </c>
@@ -4534,7 +4528,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>45046</v>
       </c>
@@ -4560,7 +4554,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>45077</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>45107</v>
       </c>
@@ -4616,7 +4610,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>45138</v>
       </c>
@@ -4642,7 +4636,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>45169</v>
       </c>
@@ -4668,18 +4662,22 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>45199</v>
       </c>
-      <c r="B125" s="20"/>
+      <c r="B125" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C125" s="13">
         <v>1.25</v>
       </c>
-      <c r="D125" s="38"/>
+      <c r="D125" s="38">
+        <v>2</v>
+      </c>
       <c r="E125" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E124)-D125</f>
-        <v>88.75</v>
+        <v>86.75</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="13">
@@ -4692,37 +4690,35 @@
         <v>94.75</v>
       </c>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="39">
+      <c r="K125" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+      <c r="B126" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="38">
+        <v>2</v>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="39">
         <v>45230</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="13">
-        <f>SUM(Table1[[#This Row],[EARNED]],E125)-D126</f>
-        <v>90</v>
-      </c>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H126" s="38"/>
-      <c r="I126" s="13">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="39">
-        <v>45260</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -4730,8 +4726,8 @@
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="13">
-        <f>SUM(Table1[[#This Row],[EARNED]],E126)-D127</f>
-        <v>91.25</v>
+        <f>SUM(Table1[[#This Row],[EARNED]],E125)-D127</f>
+        <v>88</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="13">
@@ -4740,28 +4736,24 @@
       </c>
       <c r="H127" s="38"/>
       <c r="I127" s="13">
-        <f t="shared" si="1"/>
-        <v>97.25</v>
+        <f>SUM(G127,I125)-H127</f>
+        <v>96</v>
       </c>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
-        <v>45291</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>45260</v>
+      </c>
+      <c r="B128" s="20"/>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
-      <c r="D128" s="38">
-        <v>5</v>
-      </c>
+      <c r="D128" s="38"/>
       <c r="E128" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E127)-D128</f>
-        <v>87.5</v>
+        <v>89.25</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
@@ -4771,26 +4763,32 @@
       <c r="H128" s="38"/>
       <c r="I128" s="13">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>97.25</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="38"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="39">
+        <v>45291</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D129" s="38">
+        <v>3</v>
+      </c>
       <c r="E129" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E128)-D129</f>
         <v>87.5</v>
       </c>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="38"/>
       <c r="I129" s="13">
@@ -4800,35 +4798,33 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="39">
-        <v>45322</v>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C130" s="13"/>
       <c r="D130" s="38"/>
       <c r="E130" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E129)-D130</f>
-        <v>88.75</v>
+        <v>87.5</v>
       </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H130" s="38"/>
       <c r="I130" s="13">
         <f t="shared" si="1"/>
-        <v>99.75</v>
+        <v>98.5</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -4837,7 +4833,7 @@
       <c r="D131" s="38"/>
       <c r="E131" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E130)-D131</f>
-        <v>90</v>
+        <v>88.75</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="13">
@@ -4847,103 +4843,113 @@
       <c r="H131" s="38"/>
       <c r="I131" s="13">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>99.75</v>
       </c>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
-        <v>45369</v>
+        <v>45351</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
-        <v>0.54199999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="D132" s="38"/>
       <c r="E132" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E131)-D132</f>
-        <v>90.542000000000002</v>
+        <v>90</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.54199999999999993</v>
+        <v>1.25</v>
       </c>
       <c r="H132" s="38"/>
       <c r="I132" s="13">
         <f t="shared" si="1"/>
-        <v>101.542</v>
+        <v>101</v>
       </c>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" s="51"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="9"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="39">
+        <v>45369</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D133" s="38"/>
+      <c r="E133" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E132)-D133</f>
+        <v>90.792000000000002</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H133" s="38"/>
+      <c r="I133" s="13">
+        <f t="shared" si="1"/>
+        <v>101.792</v>
+      </c>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E134" s="9"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="49"/>
+      <c r="B134" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="51"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="53"/>
       <c r="F134" s="11"/>
       <c r="G134" s="13"/>
-      <c r="H134" s="55" t="s">
-        <v>90</v>
-      </c>
+      <c r="H134" s="11"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="11"/>
-      <c r="C135" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D135" s="11"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="55" t="s">
+        <v>92</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="11"/>
-      <c r="G135" s="51" t="s">
+      <c r="G135" s="13"/>
+      <c r="H135" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H135" s="52"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="54"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="38"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="38"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F136" s="11"/>
+      <c r="G136" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H136" s="52"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="54"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4959,7 +4965,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4975,7 +4981,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4991,7 +4997,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5007,7 +5013,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5023,7 +5029,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5039,7 +5045,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5055,7 +5061,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5070,6 +5076,22 @@
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="38"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5086,10 +5108,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5112,41 +5134,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5175,7 +5197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5186,28 +5208,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="34">
         <f>J4-1</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L3" s="43">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>0.54199999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -5224,17 +5246,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>192.084</v>
+        <v>190.584</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -5262,7 +5284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5288,7 +5310,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5314,7 +5336,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5340,7 +5362,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5366,7 +5388,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5392,7 +5414,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5418,7 +5440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5444,7 +5466,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5464,7 +5486,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5484,7 +5506,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5504,7 +5526,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5525,7 +5547,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5546,7 +5568,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5567,7 +5589,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5588,7 +5610,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5609,7 +5631,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5630,7 +5652,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5651,7 +5673,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5672,7 +5694,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5693,7 +5715,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5714,7 +5736,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5735,7 +5757,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5756,7 +5778,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5777,7 +5799,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5798,7 +5820,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5819,7 +5841,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5840,7 +5862,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5861,7 +5883,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5882,7 +5904,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5903,7 +5925,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5924,7 +5946,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5933,7 +5955,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5942,7 +5964,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5951,7 +5973,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5960,7 +5982,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5969,7 +5991,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5978,7 +6000,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5987,7 +6009,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5996,7 +6018,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6005,7 +6027,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6014,7 +6036,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6023,7 +6045,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6032,7 +6054,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6041,7 +6063,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6050,7 +6072,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6059,7 +6081,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6068,7 +6090,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6077,7 +6099,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6086,7 +6108,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6095,7 +6117,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6104,7 +6126,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6113,7 +6135,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6122,7 +6144,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6131,7 +6153,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6140,7 +6162,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6149,7 +6171,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6158,7 +6180,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6167,7 +6189,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6176,7 +6198,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6185,7 +6207,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CAPUPUS, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUS, LIZA FE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29138A13-94FC-4D16-8EC6-B46DA6E76C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -305,15 +306,9 @@
     <t>COMPULSORY RETIREMENT EFFECTIVE DATE: MARCH 19, 2024</t>
   </si>
   <si>
-    <t>TOTAL SL = 101.542</t>
-  </si>
-  <si>
     <t>TOTAL LEAVE BALANCE</t>
   </si>
   <si>
-    <t>TOTAL VL = 90.542</t>
-  </si>
-  <si>
     <t>COVID 11/16,17,18</t>
   </si>
   <si>
@@ -327,12 +322,30 @@
   </si>
   <si>
     <t>9/20,21/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/24-26/2024 GERMANY</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>1/29 - 2/8/2024</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 81.792</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 99.792</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1027,7 +1040,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1044,25 +1057,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1369,34 +1382,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4200" topLeftCell="A114" activePane="bottomLeft"/>
+      <pane ySplit="4200" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1417,12 +1430,12 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
@@ -1439,7 +1452,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1474,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1469,7 +1482,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1482,7 +1495,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -1499,7 +1512,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1543,7 +1556,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.792000000000002</v>
+        <v>81.792000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1558,7 +1571,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>64</v>
       </c>
@@ -1580,7 +1593,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>42186</v>
       </c>
@@ -1606,7 +1619,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>42217</v>
       </c>
@@ -1632,7 +1645,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>42248</v>
       </c>
@@ -1658,7 +1671,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>42278</v>
       </c>
@@ -1684,7 +1697,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>42309</v>
       </c>
@@ -1710,7 +1723,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>42339</v>
       </c>
@@ -1736,7 +1749,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>65</v>
       </c>
@@ -1760,7 +1773,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>42370</v>
       </c>
@@ -1786,7 +1799,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>42401</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>42430</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>70</v>
@@ -1874,7 +1887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>42461</v>
       </c>
@@ -1900,7 +1913,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>42491</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>42522</v>
       </c>
@@ -1958,7 +1971,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>42552</v>
       </c>
@@ -1984,7 +1997,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>42583</v>
       </c>
@@ -2010,7 +2023,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>42614</v>
       </c>
@@ -2036,7 +2049,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>42644</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -2096,7 +2109,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>42675</v>
       </c>
@@ -2122,7 +2135,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>42705</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>75</v>
       </c>
@@ -2178,7 +2191,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>42736</v>
       </c>
@@ -2204,7 +2217,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>42767</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>42795</v>
       </c>
@@ -2262,7 +2275,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>42826</v>
       </c>
@@ -2288,7 +2301,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>42856</v>
       </c>
@@ -2318,7 +2331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -2346,7 +2359,7 @@
         <v>42879</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>44</v>
@@ -2374,7 +2387,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -2402,7 +2415,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>42887</v>
       </c>
@@ -2428,7 +2441,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>42917</v>
       </c>
@@ -2454,7 +2467,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>42948</v>
       </c>
@@ -2480,7 +2493,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>42979</v>
       </c>
@@ -2510,7 +2523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>44</v>
@@ -2538,7 +2551,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>43009</v>
       </c>
@@ -2564,7 +2577,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>43040</v>
       </c>
@@ -2590,7 +2603,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>43070</v>
       </c>
@@ -2620,7 +2633,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2657,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <v>43101</v>
       </c>
@@ -2676,7 +2689,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
         <v>43132</v>
       </c>
@@ -2708,7 +2721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>43160</v>
       </c>
@@ -2734,7 +2747,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <v>43191</v>
       </c>
@@ -2760,7 +2773,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <v>43221</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <v>43252</v>
       </c>
@@ -2818,7 +2831,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <v>43282</v>
       </c>
@@ -2844,7 +2857,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <v>43313</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>43344</v>
       </c>
@@ -2902,7 +2915,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <v>43374</v>
       </c>
@@ -2928,7 +2941,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39">
         <v>43405</v>
       </c>
@@ -2960,7 +2973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <v>43435</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>45</v>
       </c>
@@ -3016,7 +3029,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <v>43466</v>
       </c>
@@ -3042,7 +3055,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <v>43497</v>
       </c>
@@ -3068,7 +3081,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>43525</v>
       </c>
@@ -3094,7 +3107,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <v>43556</v>
       </c>
@@ -3120,7 +3133,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <v>43586</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <v>43617</v>
       </c>
@@ -3178,7 +3191,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <v>43647</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39">
         <v>43678</v>
       </c>
@@ -3230,7 +3243,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>43709</v>
       </c>
@@ -3256,7 +3269,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>43739</v>
       </c>
@@ -3282,7 +3295,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39">
         <v>43770</v>
       </c>
@@ -3308,7 +3321,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <v>43800</v>
       </c>
@@ -3338,7 +3351,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
         <v>56</v>
       </c>
@@ -3362,7 +3375,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <v>43831</v>
       </c>
@@ -3382,13 +3395,13 @@
       </c>
       <c r="H76" s="38"/>
       <c r="I76" s="13">
-        <f t="shared" ref="I76:I133" si="1">SUM(G76,I75)-H76</f>
+        <f t="shared" ref="I76:I134" si="1">SUM(G76,I75)-H76</f>
         <v>41.75</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <v>43862</v>
       </c>
@@ -3414,7 +3427,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <v>43891</v>
       </c>
@@ -3440,7 +3453,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <v>43922</v>
       </c>
@@ -3466,7 +3479,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <v>43952</v>
       </c>
@@ -3492,7 +3505,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <v>43983</v>
       </c>
@@ -3518,7 +3531,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
         <v>44013</v>
       </c>
@@ -3544,7 +3557,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>44044</v>
       </c>
@@ -3570,7 +3583,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <v>44075</v>
       </c>
@@ -3596,7 +3609,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <v>44105</v>
       </c>
@@ -3622,7 +3635,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <v>44136</v>
       </c>
@@ -3648,7 +3661,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <v>44166</v>
       </c>
@@ -3678,7 +3691,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="46" t="s">
         <v>57</v>
       </c>
@@ -3702,7 +3715,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
         <v>44227</v>
       </c>
@@ -3728,7 +3741,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <v>44255</v>
       </c>
@@ -3754,7 +3767,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <v>44286</v>
       </c>
@@ -3780,7 +3793,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <v>44316</v>
       </c>
@@ -3806,7 +3819,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <v>44347</v>
       </c>
@@ -3832,7 +3845,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
         <v>44377</v>
       </c>
@@ -3858,7 +3871,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <v>44408</v>
       </c>
@@ -3884,7 +3897,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <v>44439</v>
       </c>
@@ -3910,7 +3923,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <v>44469</v>
       </c>
@@ -3936,7 +3949,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <v>44500</v>
       </c>
@@ -3962,7 +3975,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <v>44530</v>
       </c>
@@ -3988,7 +4001,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <v>44561</v>
       </c>
@@ -4018,7 +4031,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>59</v>
       </c>
@@ -4042,7 +4055,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <v>44592</v>
       </c>
@@ -4068,7 +4081,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <v>44620</v>
       </c>
@@ -4094,7 +4107,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
         <v>44651</v>
       </c>
@@ -4120,7 +4133,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
         <v>44681</v>
       </c>
@@ -4146,7 +4159,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <v>44712</v>
       </c>
@@ -4172,7 +4185,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39">
         <v>44742</v>
       </c>
@@ -4198,7 +4211,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39">
         <v>44773</v>
       </c>
@@ -4224,7 +4237,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39">
         <v>44804</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
         <v>44834</v>
       </c>
@@ -4288,7 +4301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
         <v>44865</v>
       </c>
@@ -4314,7 +4327,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <v>44895</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>83</v>
@@ -4367,10 +4380,10 @@
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39">
         <v>44926</v>
       </c>
@@ -4400,7 +4413,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>79</v>
@@ -4423,10 +4436,10 @@
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
         <v>62</v>
       </c>
@@ -4450,7 +4463,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <v>44957</v>
       </c>
@@ -4476,7 +4489,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <v>44985</v>
       </c>
@@ -4502,7 +4515,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <v>45016</v>
       </c>
@@ -4528,7 +4541,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <v>45046</v>
       </c>
@@ -4554,7 +4567,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <v>45077</v>
       </c>
@@ -4584,7 +4597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <v>45107</v>
       </c>
@@ -4610,7 +4623,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39">
         <v>45138</v>
       </c>
@@ -4636,7 +4649,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39">
         <v>45169</v>
       </c>
@@ -4662,7 +4675,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39">
         <v>45199</v>
       </c>
@@ -4691,17 +4704,20 @@
       </c>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="38"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E125)-D126</f>
+        <v>86.75</v>
+      </c>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -4710,13 +4726,16 @@
       <c r="H126" s="38">
         <v>2</v>
       </c>
-      <c r="I126" s="13"/>
+      <c r="I126" s="13">
+        <f t="shared" si="1"/>
+        <v>92.75</v>
+      </c>
       <c r="J126" s="11"/>
       <c r="K126" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39">
         <v>45230</v>
       </c>
@@ -4726,7 +4745,7 @@
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="13">
-        <f>SUM(Table1[[#This Row],[EARNED]],E125)-D127</f>
+        <f>SUM(Table1[[#This Row],[EARNED]],E126)-D127</f>
         <v>88</v>
       </c>
       <c r="F127" s="20"/>
@@ -4736,13 +4755,13 @@
       </c>
       <c r="H127" s="38"/>
       <c r="I127" s="13">
-        <f>SUM(G127,I125)-H127</f>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39">
         <v>45260</v>
       </c>
@@ -4763,12 +4782,12 @@
       <c r="H128" s="38"/>
       <c r="I128" s="13">
         <f t="shared" si="1"/>
-        <v>97.25</v>
+        <v>95.25</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39">
         <v>45291</v>
       </c>
@@ -4793,12 +4812,12 @@
       <c r="H129" s="38"/>
       <c r="I129" s="13">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="46" t="s">
         <v>87</v>
       </c>
@@ -4817,16 +4836,18 @@
       <c r="H130" s="38"/>
       <c r="I130" s="13">
         <f t="shared" si="1"/>
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>45322</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
@@ -4843,129 +4864,143 @@
       <c r="H131" s="38"/>
       <c r="I131" s="13">
         <f t="shared" si="1"/>
-        <v>99.75</v>
+        <v>97.75</v>
       </c>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D132" s="38"/>
+      <c r="K131" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="39"/>
+      <c r="B132" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="38">
+        <v>9</v>
+      </c>
       <c r="E132" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E131)-D132</f>
-        <v>90</v>
+        <v>79.75</v>
       </c>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="38"/>
       <c r="I132" s="13">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>97.75</v>
       </c>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39">
-        <v>45369</v>
+        <v>45351</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
-        <v>0.79200000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="D133" s="38"/>
       <c r="E133" s="13">
         <f>SUM(Table1[[#This Row],[EARNED]],E132)-D133</f>
-        <v>90.792000000000002</v>
+        <v>81</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.79200000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="H133" s="38"/>
       <c r="I133" s="13">
         <f t="shared" si="1"/>
-        <v>101.792</v>
+        <v>99</v>
       </c>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
-      <c r="B134" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" s="51"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="9"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="39">
+        <v>45369</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D134" s="38"/>
+      <c r="E134" s="13">
+        <f>SUM(Table1[[#This Row],[EARNED]],E133)-D134</f>
+        <v>81.792000000000002</v>
+      </c>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H134" s="38"/>
+      <c r="I134" s="13">
+        <f t="shared" si="1"/>
+        <v>99.792000000000002</v>
+      </c>
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E135" s="9"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="49"/>
+      <c r="B135" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="51"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="11"/>
       <c r="G135" s="13"/>
-      <c r="H135" s="55" t="s">
-        <v>90</v>
-      </c>
+      <c r="H135" s="11"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D136" s="11"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="55" t="s">
+        <v>100</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="11"/>
-      <c r="G136" s="51" t="s">
+      <c r="G136" s="13"/>
+      <c r="H136" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="39"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H136" s="52"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="54"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="38"/>
+      <c r="D137" s="11"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="38"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F137" s="11"/>
+      <c r="G137" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H137" s="52"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="52"/>
+      <c r="K137" s="54"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4981,7 +5016,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4997,7 +5032,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5013,7 +5048,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5029,7 +5064,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="39"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5045,7 +5080,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5061,7 +5096,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="39"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5077,7 +5112,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="39"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5092,6 +5127,22 @@
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="39"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="38"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5108,10 +5159,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5134,28 +5185,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -5168,7 +5219,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5197,7 +5248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5219,19 +5270,19 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
@@ -5253,10 +5304,10 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>190.584</v>
+        <v>181.584</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -5284,7 +5335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -5310,7 +5361,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -5336,7 +5387,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -5362,7 +5413,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -5388,7 +5439,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -5414,7 +5465,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -5440,7 +5491,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -5466,7 +5517,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -5486,7 +5537,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -5506,7 +5557,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -5526,7 +5577,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -5547,7 +5598,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -5568,7 +5619,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -5589,7 +5640,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -5610,7 +5661,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -5631,7 +5682,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -5652,7 +5703,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -5673,7 +5724,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -5694,7 +5745,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -5715,7 +5766,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -5736,7 +5787,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -5757,7 +5808,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -5778,7 +5829,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -5799,7 +5850,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -5820,7 +5871,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -5841,7 +5892,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -5862,7 +5913,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5883,7 +5934,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5904,7 +5955,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5925,7 +5976,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5946,7 +5997,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5955,7 +6006,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5964,7 +6015,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5973,7 +6024,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5982,7 +6033,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5991,7 +6042,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6000,7 +6051,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6009,7 +6060,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6018,7 +6069,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6027,7 +6078,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6036,7 +6087,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6045,7 +6096,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6054,7 +6105,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6063,7 +6114,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6072,7 +6123,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6081,7 +6132,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -6090,7 +6141,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -6099,7 +6150,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -6108,7 +6159,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -6117,7 +6168,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -6126,7 +6177,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -6135,7 +6186,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -6144,7 +6195,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -6153,7 +6204,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -6162,7 +6213,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -6171,7 +6222,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -6180,7 +6231,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -6189,7 +6240,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -6198,7 +6249,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -6207,7 +6258,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
